--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="214" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="256" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="650">
   <si>
     <t>Language</t>
   </si>
@@ -254,7 +254,7 @@
     <t>Sultanate of Brunei Darussalam</t>
   </si>
   <si>
-    <t> Limbang, Sarawak, Malaysia</t>
+    <t>Limbang, Sarawak, Malaysia</t>
   </si>
   <si>
     <t>Labuan, Labuan Federal Territory Malaysia</t>
@@ -263,7 +263,7 @@
     <t>Beaufort, Sabah, Malaysia</t>
   </si>
   <si>
-    <t> Miri, Sarawak, Malaysia</t>
+    <t>Miri, Sarawak, Malaysia</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1017/S0025100316000189</t>
@@ -698,7 +698,7 @@
     <t>Komotini,Thrace, Greece</t>
   </si>
   <si>
-    <t>Drosero, Xanthi, Thrace, Greece.</t>
+    <t>Drosero, Xanthi, Thrace, 671 00 Greece.</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1017/S0025100313000376</t>
@@ -1019,7 +1019,7 @@
     <t>Kumzari</t>
   </si>
   <si>
-    <t>Musandam Peninsula, Oman and Iran</t>
+    <t>Musandam Peninsula, Oman</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1017/S0025100311000314</t>
@@ -1163,7 +1163,7 @@
     <t>Neuquén, Argentina</t>
   </si>
   <si>
-    <t> La Pampa, Argentina</t>
+    <t>La Pampa, Argentina</t>
   </si>
   <si>
     <t>Río Negro, Argentina</t>
@@ -1361,6 +1361,9 @@
     <t>Ayers Rock, Australia</t>
   </si>
   <si>
+    <t>https://doi.org/10.1017/S0025100314000073</t>
+  </si>
+  <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Pitjantjatjara.zip</t>
   </si>
   <si>
@@ -1427,7 +1430,7 @@
     <t>Setswana (South African)</t>
   </si>
   <si>
-    <t>Taung, South Africa </t>
+    <t>Taung, South Africa</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1017/S0025100316000050</t>
@@ -1532,7 +1535,7 @@
     <t>Southeastern Pashayi</t>
   </si>
   <si>
-    <t>Dara-i-Nur, Nangarhar, Afghanistan </t>
+    <t>Kuz Kunar, Nangarhar, Afghanistan </t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1017/S0025100313000133</t>
@@ -1941,6 +1944,27 @@
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Sorbian.zip</t>
+  </si>
+  <si>
+    <t>Niuean</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S0025100317000500</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
+  </si>
+  <si>
+    <t>Hawaii, USA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S0025100316000438</t>
+  </si>
+  <si>
+    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hawaiian.zip</t>
   </si>
 </sst>
 </file>
@@ -1950,11 +1974,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1970,6 +1995,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2014,8 +2046,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2036,10 +2072,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3929,161 +3965,161 @@
       <c r="B107" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>370</v>
+      <c r="G107" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>19</v>
@@ -4091,183 +4127,183 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>19</v>
@@ -4278,30 +4314,30 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>19</v>
@@ -4309,47 +4345,47 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>13</v>
@@ -4357,189 +4393,189 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>139</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>13</v>
@@ -4547,166 +4583,166 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>19</v>
@@ -4717,73 +4753,107 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G107" r:id="rId1" display="https://doi.org/10.1017/S0025100314000073"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="651">
   <si>
     <t>Language</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Western United States</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300003868</t>
+    <t>https://doi.org/10.1017/S0025100300003868</t>
   </si>
   <si>
     <t>Handbook</t>
@@ -71,7 +71,7 @@
     <t>Southern Michigan, United States</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100303001221</t>
+    <t>https://doi.org/10.1017/S0025100303001221</t>
   </si>
   <si>
     <t>Illustration</t>
@@ -86,7 +86,7 @@
     <t>Timor, Kupang City, East Nusa Tenggara, Indonesia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000377</t>
+    <t>https://doi.org/10.1017/S0025100315000377</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Amarasi.zip</t>
@@ -98,7 +98,7 @@
     <t>Addis Ababa, Ethiopia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004606</t>
+    <t>https://doi.org/10.1017/S0025100300004606</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Amharic.zip</t>
@@ -110,7 +110,7 @@
     <t>Safad, North Palestine</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004266</t>
+    <t>https://doi.org/10.1017/S0025100300004266</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Arabic.zip</t>
@@ -122,7 +122,7 @@
     <t>Assam, India</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000096</t>
+    <t>https://doi.org/10.1017/S0025100312000096</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Assamese.zip</t>
@@ -134,7 +134,7 @@
     <t>Sydney, Australia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100307003192</t>
+    <t>https://doi.org/10.1017/S0025100307003192</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Australian-English.zip</t>
@@ -146,7 +146,7 @@
     <t>Western Kimberley, Australia (One Arm Point?)</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000217</t>
+    <t>https://doi.org/10.1017/S0025100312000217</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bardi.zip</t>
@@ -158,7 +158,7 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000383</t>
+    <t>https://doi.org/10.1017/S0025100314000383</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Basaa.zip</t>
@@ -170,7 +170,7 @@
     <t>Pyrénées-Atlantiques, South France</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031400005X</t>
+    <t>https://doi.org/10.1017/S002510031400005X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bearnais-Gascon.zip</t>
@@ -182,7 +182,7 @@
     <t>Hamont, Limberg, Belgium</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100307002940</t>
+    <t>https://doi.org/10.1017/S0025100307002940</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hamont.zip</t>
@@ -194,7 +194,7 @@
     <t>Flanders, Belgium</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100305002173</t>
+    <t>https://doi.org/10.1017/S0025100305002173</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belgian-Standard-Dutch.zip</t>
@@ -206,7 +206,7 @@
     <t>Muya, Zambia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000371</t>
+    <t>https://doi.org/10.1017/S0025100314000371</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bemba.zip</t>
@@ -218,7 +218,7 @@
     <t>Dhaka, Bangladesh</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000071</t>
+    <t>https://doi.org/10.1017/S0025100310000071</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bengali.zip</t>
@@ -230,7 +230,7 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100304001756</t>
+    <t>https://doi.org/10.1017/S0025100304001756</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Brazilian-Portuguese.zip</t>
@@ -242,7 +242,7 @@
     <t>South-East England</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100304001768</t>
+    <t>https://doi.org/10.1017/S0025100304001768</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/British%20English%20-%20RP.zip</t>
@@ -266,7 +266,7 @@
     <t>Miri, Sarawak, Malaysia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100316000189</t>
+    <t>https://doi.org/10.1017/S0025100316000189</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malay.zip</t>
@@ -278,7 +278,7 @@
     <t>Bukhara</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031300011X</t>
+    <t>https://doi.org/10.1017/S002510031300011X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bukharan-Tajik.zip</t>
@@ -290,7 +290,7 @@
     <t>Burma</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100301002122</t>
+    <t>https://doi.org/10.1017/S0025100301002122</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Burmese.zip</t>
@@ -302,7 +302,7 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004072</t>
+    <t>https://doi.org/10.1017/S0025100300004072</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Bulgarian.zip</t>
@@ -314,7 +314,7 @@
     <t>Castille, Spain</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100303001373</t>
+    <t>https://doi.org/10.1017/S0025100303001373</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Castilian-Spanish.zip</t>
@@ -326,7 +326,7 @@
     <t>Barcelona, Spain</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004618</t>
+    <t>https://doi.org/10.1017/S0025100300004618</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Catalan.zip</t>
@@ -338,7 +338,7 @@
     <t>Alice Springs, Northern Territory, Australia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100305002185</t>
+    <t>https://doi.org/10.1017/S0025100305002185</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Arrernte.zip</t>
@@ -359,7 +359,7 @@
     <t>Kunak, Malaysia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000229</t>
+    <t>https://doi.org/10.1017/S0025100312000229</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Sama.zip</t>
@@ -371,7 +371,7 @@
     <t>South-Central Oklahoma</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100301002110</t>
+    <t>https://doi.org/10.1017/S0025100301002110</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chickasaw.zip</t>
@@ -383,7 +383,7 @@
     <t>Oaxaca, Mexico</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000389</t>
+    <t>https://doi.org/10.1017/S0025100315000389</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chicahuaxtla-Triqui.zip</t>
@@ -395,7 +395,7 @@
     <t>North-West Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031400022X</t>
+    <t>https://doi.org/10.1017/S002510031400022X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cicipu.zip</t>
@@ -407,7 +407,7 @@
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006058</t>
+    <t>https://doi.org/10.1017/S0025100300006058</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Cantonese.zip</t>
@@ -419,7 +419,7 @@
     <t>Gistaín, Spain</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002842</t>
+    <t>https://doi.org/10.1017/S0025100306002842</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chistabino-Aragonese.zip</t>
@@ -437,7 +437,7 @@
     <t>Sabah, Malaysia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000364</t>
+    <t>https://doi.org/10.1017/S0025100313000364</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cocos-Malay.zip</t>
@@ -449,7 +449,7 @@
     <t>Croatia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030000520X</t>
+    <t>https://doi.org/10.1017/S002510030000520X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Croatian.zip</t>
@@ -461,7 +461,7 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030000654X</t>
+    <t>https://doi.org/10.1017/S002510030000654X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cypriot-Greek.zip</t>
@@ -473,7 +473,7 @@
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005442</t>
+    <t>https://doi.org/10.1017/S0025100300005442</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Czech.zip</t>
@@ -485,7 +485,7 @@
     <t>Bohemia and Moravia, Czech Republic</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000102</t>
+    <t>https://doi.org/10.1017/S0025100312000102</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Moravian-Czech.zip</t>
@@ -497,7 +497,7 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006290</t>
+    <t>https://doi.org/10.1017/S0025100300006290</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Danish.zip</t>
@@ -509,7 +509,7 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000390</t>
+    <t>https://doi.org/10.1017/S0025100315000390</t>
   </si>
   <si>
     <t>Dutch</t>
@@ -518,7 +518,7 @@
     <t>Netherlands, North-West Belgium</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030000459X</t>
+    <t>https://doi.org/10.1017/S002510030000459X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Dutch.zip</t>
@@ -530,7 +530,7 @@
     <t>Weert, province of Limburg, Belgium</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006307</t>
+    <t>https://doi.org/10.1017/S0025100300006307</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Weert.zip</t>
@@ -542,7 +542,7 @@
     <t>Divo, Côte d'Ivoire</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030200018X</t>
+    <t>https://doi.org/10.1017/S002510030200018X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ega.zip</t>
@@ -554,7 +554,7 @@
     <t>Sichuan Province, People's Republic of China</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000437</t>
+    <t>https://doi.org/10.1017/S0025100314000437</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ersu.zip</t>
@@ -566,7 +566,7 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030999017X</t>
+    <t>https://doi.org/10.1017/S002510030999017X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Estonian.zip</t>
@@ -578,7 +578,7 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005223</t>
+    <t>https://doi.org/10.1017/S0025100300005223</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Portuguese.zip</t>
@@ -590,7 +590,7 @@
     <t>East Timor</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100316000190</t>
+    <t>https://doi.org/10.1017/S0025100316000190</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Fataluku.zip</t>
@@ -602,7 +602,7 @@
     <t>Orsmaal-Gussenhoven, Brabant, Belgium</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000083</t>
+    <t>https://doi.org/10.1017/S0025100310000083</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Orsmaal-Gussenhoven.zip</t>
@@ -614,7 +614,7 @@
     <t>France</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004874</t>
+    <t>https://doi.org/10.1017/S0025100300004874</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/French.zip</t>
@@ -626,7 +626,7 @@
     <t>Friuli-Venezia Giulia region, Italy</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100302001056</t>
+    <t>https://doi.org/10.1017/S0025100302001056</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Friulian.zip</t>
@@ -638,7 +638,7 @@
     <t>Galicia, Spain</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006162</t>
+    <t>https://doi.org/10.1017/S0025100300006162</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Galician.zip</t>
@@ -650,7 +650,7 @@
     <t>Aceh, Sumatra, Indonesia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002416</t>
+    <t>https://doi.org/10.1017/S0025100306002416</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Gayo.zip</t>
@@ -662,7 +662,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004084</t>
+    <t>https://doi.org/10.1017/S0025100300004084</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/German.zip</t>
@@ -674,7 +674,7 @@
     <t>Jos, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000243</t>
+    <t>https://doi.org/10.1017/S0025100314000243</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Goemai.zip</t>
@@ -686,7 +686,7 @@
     <t>Goizueta, Navarre, Spain</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100309990260</t>
+    <t>https://doi.org/10.1017/S0025100309990260</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Goizueta-Basque.zip</t>
@@ -701,7 +701,7 @@
     <t>Drosero, Xanthi, Thrace, 671 00 Greece.</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000376</t>
+    <t>https://doi.org/10.1017/S0025100313000376</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Xoraxane-Romane.zip</t>
@@ -713,7 +713,7 @@
     <t>Meixian County, Guandong Province, China</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003599</t>
+    <t>https://doi.org/10.1017/S0025100308003599</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hakka-Chinese.zip</t>
@@ -725,7 +725,7 @@
     <t>Kano, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004886</t>
+    <t>https://doi.org/10.1017/S0025100300004886</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hausa.zip</t>
@@ -737,7 +737,7 @@
     <t>Hasselt, province of Limburg, Belgium</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002428</t>
+    <t>https://doi.org/10.1017/S0025100306002428</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hasselt.zip</t>
@@ -749,7 +749,7 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004278</t>
+    <t>https://doi.org/10.1017/S0025100300004278</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hebrew.zip</t>
@@ -761,7 +761,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004990</t>
+    <t>https://doi.org/10.1017/S0025100300004990</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hindi.zip</t>
@@ -773,7 +773,7 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005090</t>
+    <t>https://doi.org/10.1017/S0025100300005090</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hungarian.zip</t>
@@ -788,7 +788,7 @@
     <t>Cross River State, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100304001550</t>
+    <t>https://doi.org/10.1017/S0025100304001550</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ibibio.zip</t>
@@ -800,7 +800,7 @@
     <t>Lagos, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004473</t>
+    <t>https://doi.org/10.1017/S0025100300004473</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Igbo.zip</t>
@@ -812,7 +812,7 @@
     <t>Agbor, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000067</t>
+    <t>https://doi.org/10.1017/S0025100315000067</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ika-Igbo.zip</t>
@@ -824,7 +824,7 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003320</t>
+    <t>https://doi.org/10.1017/S0025100308003320</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Indonesian.zip</t>
@@ -836,7 +836,7 @@
     <t>Dublin, Ireland</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300000189</t>
+    <t>https://doi.org/10.1017/S0025100300000189</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Irish.zip</t>
@@ -848,7 +848,7 @@
     <t>Istanbul, Turkey</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000277</t>
+    <t>https://doi.org/10.1017/S0025100310000277</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Judeo-Spanish.zip</t>
@@ -860,7 +860,7 @@
     <t>Isthmus of Tehuantepec, Oaxaca, Mexico</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000174</t>
+    <t>https://doi.org/10.1017/S0025100310000174</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Isthmus-Zapotec.zip</t>
@@ -872,7 +872,7 @@
     <t>Rome, Italy</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100304001628</t>
+    <t>https://doi.org/10.1017/S0025100304001628</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Italian.zip</t>
@@ -884,7 +884,7 @@
     <t>San Martín Itunyoso, Oaxaca, Mexico</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000034</t>
+    <t>https://doi.org/10.1017/S0025100310000034</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Itunyoso-Trique.zip</t>
@@ -896,7 +896,7 @@
     <t>St Catherine Parish, Jamaica</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030600243X</t>
+    <t>https://doi.org/10.1017/S002510030600243X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jamaican-Creole.zip</t>
@@ -908,7 +908,7 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030000445X</t>
+    <t>https://doi.org/10.1017/S002510030000445X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Japanese.zip</t>
@@ -920,7 +920,7 @@
     <t>New Mexico, United States</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100302000191</t>
+    <t>https://doi.org/10.1017/S0025100302000191</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jicarilla-Apache.zip</t>
@@ -938,7 +938,7 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003496</t>
+    <t>https://doi.org/10.1017/S0025100308003496</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kabiye.zip</t>
@@ -950,7 +950,7 @@
     <t>Bayelsa State, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510030300121X</t>
+    <t>https://doi.org/10.1017/S002510030300121X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalabari-Ijo.zip</t>
@@ -965,7 +965,7 @@
     <t>Labuan, Malaysia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000061</t>
+    <t>https://doi.org/10.1017/S0025100314000061</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kedayan.zip</t>
@@ -977,7 +977,7 @@
     <t>Flores, Indonesia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100302000178</t>
+    <t>https://doi.org/10.1017/S0025100302000178</t>
   </si>
   <si>
     <t>Kera</t>
@@ -986,7 +986,7 @@
     <t>Fianga, Chad</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100311000168</t>
+    <t>https://doi.org/10.1017/S0025100311000168</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kera.zip</t>
@@ -998,7 +998,7 @@
     <t>Khyber Pakhtunkhwa Province, Pakistan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100316000220</t>
+    <t>https://doi.org/10.1017/S0025100316000220</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khowar.zip</t>
@@ -1010,7 +1010,7 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004758</t>
+    <t>https://doi.org/10.1017/S0025100300004758</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Korean.zip</t>
@@ -1022,7 +1022,7 @@
     <t>Musandam Peninsula, Oman</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100311000314</t>
+    <t>https://doi.org/10.1017/S0025100311000314</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kumzari.zip</t>
@@ -1034,7 +1034,7 @@
     <t>Eritrea</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006551</t>
+    <t>https://doi.org/10.1017/S0025100300006551</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kunama.zip</t>
@@ -1046,7 +1046,7 @@
     <t>Liverpool, England</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100307003180</t>
+    <t>https://doi.org/10.1017/S0025100307003180</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Liverpool-English.zip</t>
@@ -1055,7 +1055,7 @@
     <t>Lizu</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000242</t>
+    <t>https://doi.org/10.1017/S0025100312000242</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lizu.zip</t>
@@ -1067,7 +1067,7 @@
     <t>White Nile, South Sudan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003605</t>
+    <t>https://doi.org/10.1017/S0025100308003605</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dinka-Luanyjang.zip</t>
@@ -1079,7 +1079,7 @@
     <t>Busoga, Uganda</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000249</t>
+    <t>https://doi.org/10.1017/S0025100315000249</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lusoga.zip</t>
@@ -1091,7 +1091,7 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000278</t>
+    <t>https://doi.org/10.1017/S0025100312000278</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Luxembourgish.zip</t>
@@ -1103,7 +1103,7 @@
     <t>Lyon, France</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000250</t>
+    <t>https://doi.org/10.1017/S0025100315000250</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Francoprovencal.zip</t>
@@ -1115,7 +1115,7 @@
     <t>Sepang, Selangor, Malaysia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100309003946</t>
+    <t>https://doi.org/10.1017/S0025100309003946</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mah-Meri.zip</t>
@@ -1127,7 +1127,7 @@
     <t>Makassar, Indonesia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031500033X</t>
+    <t>https://doi.org/10.1017/S002510031500033X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Makasar.zip</t>
@@ -1139,7 +1139,7 @@
     <t>Kerala, India</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000407</t>
+    <t>https://doi.org/10.1017/S0025100315000407</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malayalam.zip</t>
@@ -1151,7 +1151,7 @@
     <t>North Province, Cameroon</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002635</t>
+    <t>https://doi.org/10.1017/S0025100306002635</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mambay.zip</t>
@@ -1172,7 +1172,7 @@
     <t>Isla Huapi, AraucanIa, Chile</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000369</t>
+    <t>https://doi.org/10.1017/S0025100312000369</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mapudungun.zip</t>
@@ -1184,7 +1184,7 @@
     <t>Mavea, Vanuatu</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100309003958</t>
+    <t>https://doi.org/10.1017/S0025100309003958</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mavea.zip</t>
@@ -1196,7 +1196,7 @@
     <t>Blumenheim, Saskatchewan, Canada</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000121</t>
+    <t>https://doi.org/10.1017/S0025100313000121</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mennonite-Plautdietsch.zip</t>
@@ -1208,7 +1208,7 @@
     <t>Bili, Nord-Ubangi, Democratic Republic of the Congo</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100304001744</t>
+    <t>https://doi.org/10.1017/S0025100304001744</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mono.zip</t>
@@ -1220,7 +1220,7 @@
     <t>Great Basin, western United States</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031100051X</t>
+    <t>https://doi.org/10.1017/S002510031100051X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Paiute.zip</t>
@@ -1232,7 +1232,7 @@
     <t>Comunidad Autónoma de Murcia, Spain</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000231</t>
+    <t>https://doi.org/10.1017/S0025100314000231</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Murcian-Spanish.zip</t>
@@ -1244,7 +1244,7 @@
     <t>Barentu, Eritrea</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100302001068</t>
+    <t>https://doi.org/10.1017/S0025100302001068</t>
   </si>
   <si>
     <t>Nivaĉle (shichaam lhavos variety)</t>
@@ -1253,7 +1253,10 @@
     <t>Filadelfia, Paraguay</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100316000335</t>
+    <t>https://doi.org/10.1017/S0025100316000335</t>
+  </si>
+  <si>
+    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nivacle.zip</t>
   </si>
   <si>
     <t>Nen</t>
@@ -1262,7 +1265,7 @@
     <t>Bimadibun, New Guinea</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000365</t>
+    <t>https://doi.org/10.1017/S0025100315000365</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nen.zip</t>
@@ -1274,7 +1277,7 @@
     <t>Nepal</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100309990181</t>
+    <t>https://doi.org/10.1017/S0025100309990181</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nepali.zip</t>
@@ -1286,7 +1289,7 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002830</t>
+    <t>https://doi.org/10.1017/S0025100306002830</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/New-Zealand-English.zip</t>
@@ -1301,7 +1304,7 @@
     <t>Oregon, United States</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000218</t>
+    <t>https://doi.org/10.1017/S0025100314000218</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northwest-Sahaptin.zip</t>
@@ -1313,7 +1316,7 @@
     <t>Liangshan, Sichuan, People's Republic of China</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000444</t>
+    <t>https://doi.org/10.1017/S0025100315000444</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Yi.zip</t>
@@ -1325,7 +1328,7 @@
     <t>Vancouver Island, British Columbia, Canada</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100301002092</t>
+    <t>https://doi.org/10.1017/S0025100301002092</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nuuchahnulth.zip</t>
@@ -1337,7 +1340,7 @@
     <t>Chitral District, North-West Frontier Province, Pakistan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100309990193</t>
+    <t>https://doi.org/10.1017/S0025100309990193</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Palula.zip</t>
@@ -1349,7 +1352,7 @@
     <t>Tehran, Iran</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004461</t>
+    <t>https://doi.org/10.1017/S0025100300004461</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Persian.zip</t>
@@ -1373,7 +1376,7 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100303001191</t>
+    <t>https://doi.org/10.1017/S0025100303001191</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Polish.zip</t>
@@ -1385,7 +1388,7 @@
     <t>Moscow, Russia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100314000395</t>
+    <t>https://doi.org/10.1017/S0025100314000395</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Russian.zip</t>
@@ -1397,7 +1400,7 @@
     <t>Ecuador</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003332</t>
+    <t>https://doi.org/10.1017/S0025100308003332</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Salasaca-Quichua.zip</t>
@@ -1409,7 +1412,7 @@
     <t>Kondoa district, Tanzania</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002647</t>
+    <t>https://doi.org/10.1017/S0025100306002647</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sandawe.zip</t>
@@ -1421,7 +1424,7 @@
     <t>Sonora, Mexico</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100305001933</t>
+    <t>https://doi.org/10.1017/S0025100305001933</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Seri.zip</t>
@@ -1433,7 +1436,7 @@
     <t>Taung, South Africa</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100316000050</t>
+    <t>https://doi.org/10.1017/S0025100316000050</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Setswana.zip</t>
@@ -1445,7 +1448,7 @@
     <t>Shanghai, People's Republic of China</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000043</t>
+    <t>https://doi.org/10.1017/S0025100315000043</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shanghai-Chinese.zip</t>
@@ -1457,7 +1460,7 @@
     <t>Southern Sudan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000289</t>
+    <t>https://doi.org/10.1017/S0025100310000289</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shilluk.zip</t>
@@ -1469,7 +1472,7 @@
     <t>Ucayali, Peru</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100301002109</t>
+    <t>https://doi.org/10.1017/S0025100301002109</t>
   </si>
   <si>
     <t>Shiwilu (Jebero)</t>
@@ -1478,7 +1481,7 @@
     <t>Jeberos, Loreto, Peru</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000370</t>
+    <t>https://doi.org/10.1017/S0025100312000370</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shiwilu.zip</t>
@@ -1490,7 +1493,7 @@
     <t>Sindh, Pakistan</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005235</t>
+    <t>https://doi.org/10.1017/S0025100300005235</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Sindhi.zip</t>
@@ -1502,7 +1505,7 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100310000162</t>
+    <t>https://doi.org/10.1017/S0025100310000162</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Slovak.zip</t>
@@ -1514,7 +1517,7 @@
     <t>Slovenia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005211</t>
+    <t>https://doi.org/10.1017/S0025100300005211</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Slovene.zip</t>
@@ -1526,7 +1529,7 @@
     <t>Florence, Italy</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100305002148</t>
+    <t>https://doi.org/10.1017/S0025100305002148</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bertinetto-Loporcaro-Italian-SI-FI-MI-RI.zip</t>
@@ -1538,7 +1541,7 @@
     <t>Kuz Kunar, Nangarhar, Afghanistan </t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000133</t>
+    <t>https://doi.org/10.1017/S0025100313000133</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Pashayi.zip</t>
@@ -1550,7 +1553,7 @@
     <t>Eastern Washington State, United States</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006708</t>
+    <t>https://doi.org/10.1017/S0025100300006708</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Spokane.zip</t>
@@ -1562,7 +1565,7 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100315000055</t>
+    <t>https://doi.org/10.1017/S0025100315000055</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Austrian-German.zip</t>
@@ -1574,7 +1577,7 @@
     <t>Beijing, People's Republic of China</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100303001208</t>
+    <t>https://doi.org/10.1017/S0025100303001208</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chinese-Beijing.zip</t>
@@ -1586,7 +1589,7 @@
     <t>Republic of Georgia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002659</t>
+    <t>https://doi.org/10.1017/S0025100306002659</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Georgian.zip</t>
@@ -1598,7 +1601,7 @@
     <t>Brunei</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031100017X</t>
+    <t>https://doi.org/10.1017/S002510031100017X</t>
   </si>
   <si>
     <t>Standard Modern Greek</t>
@@ -1607,7 +1610,7 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300006538</t>
+    <t>https://doi.org/10.1017/S0025100300006538</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Modern-Greek.zip</t>
@@ -1619,7 +1622,7 @@
     <t>Warsaw, Poland</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100303001385</t>
+    <t>https://doi.org/10.1017/S0025100303001385</t>
   </si>
   <si>
     <t>Sumi (Sema)</t>
@@ -1628,7 +1631,7 @@
     <t>Nagaland, North-East India</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000254</t>
+    <t>https://doi.org/10.1017/S0025100312000254</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sumi-Sema.zip</t>
@@ -1640,7 +1643,7 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004060</t>
+    <t>https://doi.org/10.1017/S0025100300004060</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Swedish.zip</t>
@@ -1652,7 +1655,7 @@
     <t>Maluku Province, Indonesia</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005326</t>
+    <t>https://doi.org/10.1017/S0025100300005326</t>
   </si>
   <si>
     <t>Thai</t>
@@ -1661,7 +1664,7 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004746</t>
+    <t>https://doi.org/10.1017/S0025100300004746</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Thai.zip</t>
@@ -1673,7 +1676,7 @@
     <t>Malo, Vanuatu</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100305002197</t>
+    <t>https://doi.org/10.1017/S0025100305002197</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tamambo.zip</t>
@@ -1685,7 +1688,7 @@
     <t>Tamil Nadu, India</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100304001549</t>
+    <t>https://doi.org/10.1017/S0025100304001549</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tamil.zip</t>
@@ -1697,7 +1700,7 @@
     <t>Morocco</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000388</t>
+    <t>https://doi.org/10.1017/S0025100313000388</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tashlhiyt-Berber.zip</t>
@@ -1709,7 +1712,7 @@
     <t>Jolo, Philippines</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000230</t>
+    <t>https://doi.org/10.1017/S0025100312000230</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tausug.zip</t>
@@ -1724,7 +1727,7 @@
     <t>Andhra Pradesh India</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100316000207</t>
+    <t>https://doi.org/10.1017/S0025100316000207</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Telugu.zip</t>
@@ -1736,7 +1739,7 @@
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S002510031000006X</t>
+    <t>https://doi.org/10.1017/S002510031000006X</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Temne.zip</t>
@@ -1748,7 +1751,7 @@
     <t>Tena, Ecuador</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100312000266</t>
+    <t>https://doi.org/10.1017/S0025100312000266</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tena-Quichua.zip</t>
@@ -1760,7 +1763,7 @@
     <t>Gombe State, Nigeria</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100307002952</t>
+    <t>https://doi.org/10.1017/S0025100307002952</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tera.zip</t>
@@ -1772,7 +1775,7 @@
     <t>Tilquiapan, Oaxaca, Mexico</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003344</t>
+    <t>https://doi.org/10.1017/S0025100308003344</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zapotec.zip</t>
@@ -1784,7 +1787,7 @@
     <t>Sulawesi</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300005004</t>
+    <t>https://doi.org/10.1017/S0025100300005004</t>
   </si>
   <si>
     <t>Turkish</t>
@@ -1793,7 +1796,7 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100300004588</t>
+    <t>https://doi.org/10.1017/S0025100300004588</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Turkish.zip</t>
@@ -1805,7 +1808,7 @@
     <t>Newcastle-Upon-Tyne, England</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100303001397</t>
+    <t>https://doi.org/10.1017/S0025100303001397</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tyneside-English.zip</t>
@@ -1817,7 +1820,7 @@
     <t>Free State of Saxony, Germany</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000145</t>
+    <t>https://doi.org/10.1017/S0025100313000145</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Saxon.zip</t>
@@ -1829,7 +1832,7 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100311000181</t>
+    <t>https://doi.org/10.1017/S0025100311000181</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Vietnamese.zip</t>
@@ -1841,7 +1844,7 @@
     <t>Muli, Liangshan, Sichuan, People's Republic of China</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000157</t>
+    <t>https://doi.org/10.1017/S0025100313000157</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lower-Xumi.zip</t>
@@ -1850,7 +1853,7 @@
     <t>Xumi (part 2): Upper Xumi, the variety of the upper reaches of the Shuiluo river</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100313000169</t>
+    <t>https://doi.org/10.1017/S0025100313000169</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Xumi.zip</t>
@@ -1859,7 +1862,7 @@
     <t>Yine</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100308003356</t>
+    <t>https://doi.org/10.1017/S0025100308003356</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Yine.zip</t>
@@ -1871,7 +1874,7 @@
     <t>Zurich, Switzerland</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1017/S0025100306002441</t>
+    <t>https://doi.org/10.1017/S0025100306002441</t>
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zurich-German.zip</t>
@@ -1895,9 +1898,6 @@
     <t>Kerala,India</t>
   </si>
   <si>
-    <t>https://doi.org/10.1017/S0025100315000407</t>
-  </si>
-  <si>
     <t>Azerbaijani</t>
   </si>
   <si>
@@ -1953,6 +1953,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1017/S0025100317000500</t>
+  </si>
+  <si>
+    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Niuean.zip</t>
   </si>
   <si>
     <t>Hawaiian</t>
@@ -1974,7 +1977,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1995,13 +1998,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2046,12 +2042,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2074,8 +2066,8 @@
   </sheetPr>
   <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G107" activeCellId="0" sqref="G2:G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3818,308 +3810,311 @@
       <c r="H98" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="I98" s="0" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="G107" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="G107" s="0" t="s">
+        <v>449</v>
+      </c>
       <c r="H107" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>19</v>
@@ -4127,183 +4122,183 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>19</v>
@@ -4314,30 +4309,30 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>19</v>
@@ -4345,47 +4340,47 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>13</v>
@@ -4393,189 +4388,189 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>139</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>13</v>
@@ -4583,166 +4578,166 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>626</v>
+        <v>374</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>19</v>
@@ -4832,28 +4827,28 @@
       <c r="H158" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="I158" s="0" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G107" r:id="rId1" display="https://doi.org/10.1017/S0025100314000073"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="662">
   <si>
     <t>Language</t>
   </si>
@@ -1968,6 +1968,39 @@
   </si>
   <si>
     <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hawaiian.zip</t>
+  </si>
+  <si>
+    <t>Central Lisu</t>
+  </si>
+  <si>
+    <t>ShiBaCha, Yingjiang, Dehong, Yunnan, China</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S0025100318000129</t>
+  </si>
+  <si>
+    <t>Philippine English</t>
+  </si>
+  <si>
+    <t>Manila, Philippines</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S0025100317000548</t>
+  </si>
+  <si>
+    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/PhilippineEnglish.zip</t>
+  </si>
+  <si>
+    <t>Zwara (Zuwārah) Berber</t>
+  </si>
+  <si>
+    <t>Zwara, Libya</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/S0025100317000135</t>
+  </si>
+  <si>
+    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zwara-Berber.zip</t>
   </si>
 </sst>
 </file>
@@ -2064,10 +2097,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G107" activeCellId="0" sqref="G2:G151"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4848,6 +4881,54 @@
         <v>650</v>
       </c>
     </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -5,2002 +5,2253 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="256" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="662">
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>Address3</t>
-  </si>
-  <si>
-    <t>Address4</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Pubtype</t>
-  </si>
-  <si>
-    <t>Recording</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>American English</t>
-  </si>
-  <si>
-    <t>Western United States</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300003868</t>
-  </si>
-  <si>
-    <t>Handbook</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/American-English.zip</t>
-  </si>
-  <si>
-    <t>Unable to find stand-alone online publication. Kenneth Olson cites part of the report on the 1989 Kiel convention as the online publication of this Illustration (JIPA 19(20) 77-80), but the handbook entry is more detailed.</t>
-  </si>
-  <si>
-    <t>American English: Southern Michigan</t>
-  </si>
-  <si>
-    <t>Southern Michigan, United States</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100303001221</t>
-  </si>
-  <si>
-    <t>Illustration</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Southern-Michigan.zip</t>
-  </si>
-  <si>
-    <t>Amarisi</t>
-  </si>
-  <si>
-    <t>Timor, Kupang City, East Nusa Tenggara, Indonesia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000377</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Amarasi.zip</t>
-  </si>
-  <si>
-    <t>Amharic</t>
-  </si>
-  <si>
-    <t>Addis Ababa, Ethiopia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004606</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Amharic.zip</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Safad, North Palestine</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004266</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Arabic.zip</t>
-  </si>
-  <si>
-    <t>Assamese</t>
-  </si>
-  <si>
-    <t>Assam, India</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000096</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Assamese.zip</t>
-  </si>
-  <si>
-    <t>Australian English</t>
-  </si>
-  <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100307003192</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Australian-English.zip</t>
-  </si>
-  <si>
-    <t>Bardi</t>
-  </si>
-  <si>
-    <t>Western Kimberley, Australia (One Arm Point?)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000217</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bardi.zip</t>
-  </si>
-  <si>
-    <t>Basaá</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000383</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Basaa.zip</t>
-  </si>
-  <si>
-    <t>Béarnais (Gascon)</t>
-  </si>
-  <si>
-    <t>Pyrénées-Atlantiques, South France</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031400005X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bearnais-Gascon.zip</t>
-  </si>
-  <si>
-    <t>The Belgian Limburg dialect of Hamont</t>
-  </si>
-  <si>
-    <t>Hamont, Limberg, Belgium</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100307002940</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hamont.zip</t>
-  </si>
-  <si>
-    <t>Belgian Standard Dutch</t>
-  </si>
-  <si>
-    <t>Flanders, Belgium</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100305002173</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belgian-Standard-Dutch.zip</t>
-  </si>
-  <si>
-    <t>Bemba</t>
-  </si>
-  <si>
-    <t>Muya, Zambia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000371</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bemba.zip</t>
-  </si>
-  <si>
-    <t>Bengali (Bangladeshi Standard)</t>
-  </si>
-  <si>
-    <t>Dhaka, Bangladesh</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000071</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bengali.zip</t>
-  </si>
-  <si>
-    <t>Brazilian Portuguese</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100304001756</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Brazilian-Portuguese.zip</t>
-  </si>
-  <si>
-    <t>British English: Received Pronunciation</t>
-  </si>
-  <si>
-    <t>South-East England</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100304001768</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/British%20English%20-%20RP.zip</t>
-  </si>
-  <si>
-    <t>Brunei Malay</t>
-  </si>
-  <si>
-    <t>Sultanate of Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Limbang, Sarawak, Malaysia</t>
-  </si>
-  <si>
-    <t>Labuan, Labuan Federal Territory Malaysia</t>
-  </si>
-  <si>
-    <t>Beaufort, Sabah, Malaysia</t>
-  </si>
-  <si>
-    <t>Miri, Sarawak, Malaysia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000189</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malay.zip</t>
-  </si>
-  <si>
-    <t>Bukharan Tajik</t>
-  </si>
-  <si>
-    <t>Bukhara</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031300011X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bukharan-Tajik.zip</t>
-  </si>
-  <si>
-    <t>Burmese</t>
-  </si>
-  <si>
-    <t>Burma</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100301002122</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Burmese.zip</t>
-  </si>
-  <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004072</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Bulgarian.zip</t>
-  </si>
-  <si>
-    <t>Castilian Spanish</t>
-  </si>
-  <si>
-    <t>Castille, Spain</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100303001373</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Castilian-Spanish.zip</t>
-  </si>
-  <si>
-    <t>Catalan</t>
-  </si>
-  <si>
-    <t>Barcelona, Spain</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004618</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Catalan.zip</t>
-  </si>
-  <si>
-    <t>Central Arrernte</t>
-  </si>
-  <si>
-    <t>Alice Springs, Northern Territory, Australia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100305002185</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Arrernte.zip</t>
-  </si>
-  <si>
-    <t>Central Sama</t>
-  </si>
-  <si>
-    <t>Sulu Archipeligo, Philippines</t>
-  </si>
-  <si>
-    <t>Ipil, Zamboanga Peninsula, Philippines</t>
-  </si>
-  <si>
-    <t>Semporna, Malaysia</t>
-  </si>
-  <si>
-    <t>Kunak, Malaysia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000229</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Sama.zip</t>
-  </si>
-  <si>
-    <t>Chickasaw</t>
-  </si>
-  <si>
-    <t>South-Central Oklahoma</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100301002110</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chickasaw.zip</t>
-  </si>
-  <si>
-    <t>Chicahuaxtla Triqui</t>
-  </si>
-  <si>
-    <t>Oaxaca, Mexico</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000389</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chicahuaxtla-Triqui.zip</t>
-  </si>
-  <si>
-    <t>Cicipu</t>
-  </si>
-  <si>
-    <t>North-West Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031400022X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cicipu.zip</t>
-  </si>
-  <si>
-    <t>Chinese (Hong Kong Cantonese)</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006058</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Cantonese.zip</t>
-  </si>
-  <si>
-    <t>Chistabino (Pyrenean Aragonese)</t>
-  </si>
-  <si>
-    <t>Gistaín, Spain</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002842</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chistabino-Aragonese.zip</t>
-  </si>
-  <si>
-    <t>Cocos Malay</t>
-  </si>
-  <si>
-    <t>Cocos Islands, Australia</t>
-  </si>
-  <si>
-    <t>Christmas Islands, Australia</t>
-  </si>
-  <si>
-    <t>Sabah, Malaysia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000364</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cocos-Malay.zip</t>
-  </si>
-  <si>
-    <t>Croatian</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030000520X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Croatian.zip</t>
-  </si>
-  <si>
-    <t>Cypriot Greek</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030000654X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cypriot-Greek.zip</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005442</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Czech.zip</t>
-  </si>
-  <si>
-    <t>Czech spoken in Bohemia and Moravia</t>
-  </si>
-  <si>
-    <t>Bohemia and Moravia, Czech Republic</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000102</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Moravian-Czech.zip</t>
-  </si>
-  <si>
-    <t>Danish</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006290</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Danish.zip</t>
-  </si>
-  <si>
-    <t>Dari (Afghan Persian)</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000390</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>Netherlands, North-West Belgium</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030000459X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Dutch.zip</t>
-  </si>
-  <si>
-    <t>The Dutch dialect of Weert</t>
-  </si>
-  <si>
-    <t>Weert, province of Limburg, Belgium</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006307</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Weert.zip</t>
-  </si>
-  <si>
-    <t>Ega</t>
-  </si>
-  <si>
-    <t>Divo, Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030200018X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ega.zip</t>
-  </si>
-  <si>
-    <t>Ersu</t>
-  </si>
-  <si>
-    <t>Sichuan Province, People's Republic of China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000437</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ersu.zip</t>
-  </si>
-  <si>
-    <t>Estonian</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030999017X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Estonian.zip</t>
-  </si>
-  <si>
-    <t>European Portuguese</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005223</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Portuguese.zip</t>
-  </si>
-  <si>
-    <t>Fataluku</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000190</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Fataluku.zip</t>
-  </si>
-  <si>
-    <t>The Flemish-Brabant dialect of Orsmaal-Gussenhoven</t>
-  </si>
-  <si>
-    <t>Orsmaal-Gussenhoven, Brabant, Belgium</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000083</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Orsmaal-Gussenhoven.zip</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004874</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/French.zip</t>
-  </si>
-  <si>
-    <t>Friulian</t>
-  </si>
-  <si>
-    <t>Friuli-Venezia Giulia region, Italy</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100302001056</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Friulian.zip</t>
-  </si>
-  <si>
-    <t>Galician</t>
-  </si>
-  <si>
-    <t>Galicia, Spain</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006162</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Galician.zip</t>
-  </si>
-  <si>
-    <t>Gayo</t>
-  </si>
-  <si>
-    <t>Aceh, Sumatra, Indonesia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002416</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Gayo.zip</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004084</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/German.zip</t>
-  </si>
-  <si>
-    <t>Goemai</t>
-  </si>
-  <si>
-    <t>Jos, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000243</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Goemai.zip</t>
-  </si>
-  <si>
-    <t>Goizueta Basque</t>
-  </si>
-  <si>
-    <t>Goizueta, Navarre, Spain</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100309990260</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Goizueta-Basque.zip</t>
-  </si>
-  <si>
-    <t>Greek Thrace Xoraxane Romane</t>
-  </si>
-  <si>
-    <t>Komotini,Thrace, Greece</t>
-  </si>
-  <si>
-    <t>Drosero, Xanthi, Thrace, 671 00 Greece.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000376</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Xoraxane-Romane.zip</t>
-  </si>
-  <si>
-    <t>Hakka Chinese</t>
-  </si>
-  <si>
-    <t>Meixian County, Guandong Province, China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003599</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hakka-Chinese.zip</t>
-  </si>
-  <si>
-    <t>Hausa</t>
-  </si>
-  <si>
-    <t>Kano, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004886</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hausa.zip</t>
-  </si>
-  <si>
-    <t>The dialect of Hasselt</t>
-  </si>
-  <si>
-    <t>Hasselt, province of Limburg, Belgium</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002428</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hasselt.zip</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004278</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hebrew.zip</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004990</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hindi.zip</t>
-  </si>
-  <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005090</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hungarian.zip</t>
-  </si>
-  <si>
-    <t>Ibibio</t>
-  </si>
-  <si>
-    <t>Akwa Ibom State, Nigeria</t>
-  </si>
-  <si>
-    <t>Cross River State, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100304001550</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ibibio.zip</t>
-  </si>
-  <si>
-    <t>Igbo</t>
-  </si>
-  <si>
-    <t>Lagos, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004473</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Igbo.zip</t>
-  </si>
-  <si>
-    <t>Ika Igbo</t>
-  </si>
-  <si>
-    <t>Agbor, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000067</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ika-Igbo.zip</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003320</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Indonesian.zip</t>
-  </si>
-  <si>
-    <t>Irish</t>
-  </si>
-  <si>
-    <t>Dublin, Ireland</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300000189</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Irish.zip</t>
-  </si>
-  <si>
-    <t>Istanbul Judeo-Spanish</t>
-  </si>
-  <si>
-    <t>Istanbul, Turkey</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000277</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Judeo-Spanish.zip</t>
-  </si>
-  <si>
-    <t>Isthmus (Juchitán) Zapotec</t>
-  </si>
-  <si>
-    <t>Isthmus of Tehuantepec, Oaxaca, Mexico</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000174</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Isthmus-Zapotec.zip</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Rome, Italy</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100304001628</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Italian.zip</t>
-  </si>
-  <si>
-    <t>Itunyoso Trique</t>
-  </si>
-  <si>
-    <t>San Martín Itunyoso, Oaxaca, Mexico</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000034</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Itunyoso-Trique.zip</t>
-  </si>
-  <si>
-    <t>Jamaican Creole</t>
-  </si>
-  <si>
-    <t>St Catherine Parish, Jamaica</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030600243X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jamaican-Creole.zip</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030000445X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Japanese.zip</t>
-  </si>
-  <si>
-    <t>Jicarilla Apache</t>
-  </si>
-  <si>
-    <t>New Mexico, United States</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100302000191</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jicarilla-Apache.zip</t>
-  </si>
-  <si>
-    <t>Kabiye</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003496</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kabiye.zip</t>
-  </si>
-  <si>
-    <t>Kalabari-Ijo</t>
-  </si>
-  <si>
-    <t>Bayelsa State, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510030300121X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalabari-Ijo.zip</t>
-  </si>
-  <si>
-    <t>Kedayan</t>
-  </si>
-  <si>
-    <t>Sarawak, Malaysia</t>
-  </si>
-  <si>
-    <t>Labuan, Malaysia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000061</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kedayan.zip</t>
-  </si>
-  <si>
-    <t>Kéo</t>
-  </si>
-  <si>
-    <t>Flores, Indonesia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100302000178</t>
-  </si>
-  <si>
-    <t>Kera</t>
-  </si>
-  <si>
-    <t>Fianga, Chad</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100311000168</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kera.zip</t>
-  </si>
-  <si>
-    <t>Khowar</t>
-  </si>
-  <si>
-    <t>Khyber Pakhtunkhwa Province, Pakistan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000220</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khowar.zip</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004758</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Korean.zip</t>
-  </si>
-  <si>
-    <t>Kumzari</t>
-  </si>
-  <si>
-    <t>Musandam Peninsula, Oman</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100311000314</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kumzari.zip</t>
-  </si>
-  <si>
-    <t>Kunama</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006551</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kunama.zip</t>
-  </si>
-  <si>
-    <t>Liverpool English</t>
-  </si>
-  <si>
-    <t>Liverpool, England</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100307003180</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Liverpool-English.zip</t>
-  </si>
-  <si>
-    <t>Lizu</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000242</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lizu.zip</t>
-  </si>
-  <si>
-    <t>Luanyjang Dinka</t>
-  </si>
-  <si>
-    <t>White Nile, South Sudan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003605</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dinka-Luanyjang.zip</t>
-  </si>
-  <si>
-    <t>Lusoga (Lutenga)</t>
-  </si>
-  <si>
-    <t>Busoga, Uganda</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000249</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lusoga.zip</t>
-  </si>
-  <si>
-    <t>Luxembourgish</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000278</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Luxembourgish.zip</t>
-  </si>
-  <si>
-    <t>Lyonnais (Francoprovençal)</t>
-  </si>
-  <si>
-    <t>Lyon, France</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000250</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Francoprovencal.zip</t>
-  </si>
-  <si>
-    <t>Mah Meri</t>
-  </si>
-  <si>
-    <t>Sepang, Selangor, Malaysia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100309003946</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mah-Meri.zip</t>
-  </si>
-  <si>
-    <t>Makasar</t>
-  </si>
-  <si>
-    <t>Makassar, Indonesia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031500033X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Makasar.zip</t>
-  </si>
-  <si>
-    <t>Malayam (Namboodiri Dialect)</t>
-  </si>
-  <si>
-    <t>Kerala, India</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000407</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malayalam.zip</t>
-  </si>
-  <si>
-    <t>Mambay</t>
-  </si>
-  <si>
-    <t>North Province, Cameroon</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002635</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mambay.zip</t>
-  </si>
-  <si>
-    <t>Mapudungun</t>
-  </si>
-  <si>
-    <t>Neuquén, Argentina</t>
-  </si>
-  <si>
-    <t>La Pampa, Argentina</t>
-  </si>
-  <si>
-    <t>Río Negro, Argentina</t>
-  </si>
-  <si>
-    <t>Isla Huapi, AraucanIa, Chile</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000369</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mapudungun.zip</t>
-  </si>
-  <si>
-    <t>Mavea</t>
-  </si>
-  <si>
-    <t>Mavea, Vanuatu</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100309003958</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mavea.zip</t>
-  </si>
-  <si>
-    <t>Mennonite Plautdietsch (Canadian Old Colony)</t>
-  </si>
-  <si>
-    <t>Blumenheim, Saskatchewan, Canada</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000121</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mennonite-Plautdietsch.zip</t>
-  </si>
-  <si>
-    <t>Mono</t>
-  </si>
-  <si>
-    <t>Bili, Nord-Ubangi, Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100304001744</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mono.zip</t>
-  </si>
-  <si>
-    <t>Mono Lake Northern Paiute</t>
-  </si>
-  <si>
-    <t>Great Basin, western United States</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031100051X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Paiute.zip</t>
-  </si>
-  <si>
-    <t>Murcian Spanish</t>
-  </si>
-  <si>
-    <t>Comunidad Autónoma de Murcia, Spain</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000231</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Murcian-Spanish.zip</t>
-  </si>
-  <si>
-    <t>Nara</t>
-  </si>
-  <si>
-    <t>Barentu, Eritrea</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100302001068</t>
-  </si>
-  <si>
-    <t>Nivaĉle (shichaam lhavos variety)</t>
-  </si>
-  <si>
-    <t>Filadelfia, Paraguay</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000335</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nivacle.zip</t>
-  </si>
-  <si>
-    <t>Nen</t>
-  </si>
-  <si>
-    <t>Bimadibun, New Guinea</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000365</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nen.zip</t>
-  </si>
-  <si>
-    <t>Nepali</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100309990181</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nepali.zip</t>
-  </si>
-  <si>
-    <t>New Zealand English</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002830</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/New-Zealand-English.zip</t>
-  </si>
-  <si>
-    <t>Northwest Sahaptin</t>
-  </si>
-  <si>
-    <t>Washington, United States</t>
-  </si>
-  <si>
-    <t>Oregon, United States</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000218</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northwest-Sahaptin.zip</t>
-  </si>
-  <si>
-    <t>Nuosu Yi</t>
-  </si>
-  <si>
-    <t>Liangshan, Sichuan, People's Republic of China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000444</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Yi.zip</t>
-  </si>
-  <si>
-    <t>Nuuchahnulth</t>
-  </si>
-  <si>
-    <t>Vancouver Island, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100301002092</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nuuchahnulth.zip</t>
-  </si>
-  <si>
-    <t>Palula</t>
-  </si>
-  <si>
-    <t>Chitral District, North-West Frontier Province, Pakistan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100309990193</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Palula.zip</t>
-  </si>
-  <si>
-    <t>Persian</t>
-  </si>
-  <si>
-    <t>Tehran, Iran</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004461</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Persian.zip</t>
-  </si>
-  <si>
-    <t>Pitjantjatjara</t>
-  </si>
-  <si>
-    <t>Ayers Rock, Australia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000073</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Pitjantjatjara.zip</t>
-  </si>
-  <si>
-    <t>Polish</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100303001191</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Polish.zip</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Moscow, Russia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100314000395</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Russian.zip</t>
-  </si>
-  <si>
-    <t>Salasaca Quichua</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003332</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Salasaca-Quichua.zip</t>
-  </si>
-  <si>
-    <t>Sandawe</t>
-  </si>
-  <si>
-    <t>Kondoa district, Tanzania</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002647</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sandawe.zip</t>
-  </si>
-  <si>
-    <t>Seri</t>
-  </si>
-  <si>
-    <t>Sonora, Mexico</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100305001933</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Seri.zip</t>
-  </si>
-  <si>
-    <t>Setswana (South African)</t>
-  </si>
-  <si>
-    <t>Taung, South Africa</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000050</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Setswana.zip</t>
-  </si>
-  <si>
-    <t>Shanghai Chinese</t>
-  </si>
-  <si>
-    <t>Shanghai, People's Republic of China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000043</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shanghai-Chinese.zip</t>
-  </si>
-  <si>
-    <t>Shilluk</t>
-  </si>
-  <si>
-    <t>Southern Sudan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000289</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shilluk.zip</t>
-  </si>
-  <si>
-    <t>Shipibo</t>
-  </si>
-  <si>
-    <t>Ucayali, Peru</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100301002109</t>
-  </si>
-  <si>
-    <t>Shiwilu (Jebero)</t>
-  </si>
-  <si>
-    <t>Jeberos, Loreto, Peru</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000370</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shiwilu.zip</t>
-  </si>
-  <si>
-    <t>Sindhi</t>
-  </si>
-  <si>
-    <t>Sindh, Pakistan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005235</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Sindhi.zip</t>
-  </si>
-  <si>
-    <t>Slovak</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100310000162</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Slovak.zip</t>
-  </si>
-  <si>
-    <t>Slovene</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005211</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Slovene.zip</t>
-  </si>
-  <si>
-    <t>The sound pattern of Standard Italian, as compared with the varieties spoken in Florence, Milan and Rome</t>
-  </si>
-  <si>
-    <t>Florence, Italy</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100305002148</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bertinetto-Loporcaro-Italian-SI-FI-MI-RI.zip</t>
-  </si>
-  <si>
-    <t>Southeastern Pashayi</t>
-  </si>
-  <si>
-    <t>Kuz Kunar, Nangarhar, Afghanistan </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000133</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Pashayi.zip</t>
-  </si>
-  <si>
-    <t>Spokane</t>
-  </si>
-  <si>
-    <t>Eastern Washington State, United States</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006708</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Spokane.zip</t>
-  </si>
-  <si>
-    <t>Standard Austrian German</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000055</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Austrian-German.zip</t>
-  </si>
-  <si>
-    <t>Standard Chinese (Beijing)</t>
-  </si>
-  <si>
-    <t>Beijing, People's Republic of China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100303001208</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chinese-Beijing.zip</t>
-  </si>
-  <si>
-    <t>Standard Georgian</t>
-  </si>
-  <si>
-    <t>Republic of Georgia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002659</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Georgian.zip</t>
-  </si>
-  <si>
-    <t>Standard Malay (Brunei)</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031100017X</t>
-  </si>
-  <si>
-    <t>Standard Modern Greek</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300006538</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Modern-Greek.zip</t>
-  </si>
-  <si>
-    <t>Standard Yiddish</t>
-  </si>
-  <si>
-    <t>Warsaw, Poland</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100303001385</t>
-  </si>
-  <si>
-    <t>Sumi (Sema)</t>
-  </si>
-  <si>
-    <t>Nagaland, North-East India</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000254</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sumi-Sema.zip</t>
-  </si>
-  <si>
-    <t>Swedish</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004060</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Swedish.zip</t>
-  </si>
-  <si>
-    <t>Taba</t>
-  </si>
-  <si>
-    <t>Maluku Province, Indonesia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005326</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004746</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Thai.zip</t>
-  </si>
-  <si>
-    <t>Tamambo</t>
-  </si>
-  <si>
-    <t>Malo, Vanuatu</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100305002197</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tamambo.zip</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>Tamil Nadu, India</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100304001549</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tamil.zip</t>
-  </si>
-  <si>
-    <t>Tashlhiyt Berber</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000388</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tashlhiyt-Berber.zip</t>
-  </si>
-  <si>
-    <t>Tausung (Suluk)</t>
-  </si>
-  <si>
-    <t>Jolo, Philippines</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000230</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tausug.zip</t>
-  </si>
-  <si>
-    <t>Telugu</t>
-  </si>
-  <si>
-    <t>Telangana, India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh India</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000207</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Telugu.zip</t>
-  </si>
-  <si>
-    <t>Temne</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S002510031000006X</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Temne.zip</t>
-  </si>
-  <si>
-    <t>Tena Quichua</t>
-  </si>
-  <si>
-    <t>Tena, Ecuador</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100312000266</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tena-Quichua.zip</t>
-  </si>
-  <si>
-    <t>Tera</t>
-  </si>
-  <si>
-    <t>Gombe State, Nigeria</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100307002952</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tera.zip</t>
-  </si>
-  <si>
-    <t>Tilquiapan Zapotec</t>
-  </si>
-  <si>
-    <t>Tilquiapan, Oaxaca, Mexico</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003344</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zapotec.zip</t>
-  </si>
-  <si>
-    <t>Tukang Besi</t>
-  </si>
-  <si>
-    <t>Sulawesi</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300005004</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100300004588</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Turkish.zip</t>
-  </si>
-  <si>
-    <t>Tyneside English</t>
-  </si>
-  <si>
-    <t>Newcastle-Upon-Tyne, England</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100303001397</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tyneside-English.zip</t>
-  </si>
-  <si>
-    <t>Upper Saxon (Chemnitz dialect)</t>
-  </si>
-  <si>
-    <t>Free State of Saxony, Germany</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000145</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Saxon.zip</t>
-  </si>
-  <si>
-    <t>Vietnamese (Hanoi Vietnamese)</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100311000181</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Vietnamese.zip</t>
-  </si>
-  <si>
-    <t>Xumi (part 1): Lower Xumi, the variety of the lower and middle reaches of the Shuiluo river</t>
-  </si>
-  <si>
-    <t>Muli, Liangshan, Sichuan, People's Republic of China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000157</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lower-Xumi.zip</t>
-  </si>
-  <si>
-    <t>Xumi (part 2): Upper Xumi, the variety of the upper reaches of the Shuiluo river</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100313000169</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Xumi.zip</t>
-  </si>
-  <si>
-    <t>Yine</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100308003356</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Yine.zip</t>
-  </si>
-  <si>
-    <t>Zurich German</t>
-  </si>
-  <si>
-    <t>Zurich, Switzerland</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100306002441</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zurich-German.zip</t>
-  </si>
-  <si>
-    <t>Gitskan</t>
-  </si>
-  <si>
-    <t>Glen Vowell, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100315000432</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Gitksan.zip</t>
-  </si>
-  <si>
-    <t>Malayalam</t>
-  </si>
-  <si>
-    <t>Kerala,India</t>
-  </si>
-  <si>
-    <t>Azerbaijani</t>
-  </si>
-  <si>
-    <t>Baku, Azerbaijan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100317000184</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Azerbaijanian.zip</t>
-  </si>
-  <si>
-    <t>Munji</t>
-  </si>
-  <si>
-    <t>Kuran Wa Munjan, Badachschan, Afghanistan</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000256</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Munji.zip</t>
-  </si>
-  <si>
-    <t>Ukrainian</t>
-  </si>
-  <si>
-    <t>Kiev, Ukraine</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000372</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ukrainian.zip</t>
-  </si>
-  <si>
-    <t>Upper Sorbian</t>
-  </si>
-  <si>
-    <t>Bautzen, Germany</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000414</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Sorbian.zip</t>
-  </si>
-  <si>
-    <t>Niuean</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100317000500</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Niuean.zip</t>
-  </si>
-  <si>
-    <t>Hawaiian</t>
-  </si>
-  <si>
-    <t>Hawaii, USA</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100316000438</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hawaiian.zip</t>
-  </si>
-  <si>
-    <t>Central Lisu</t>
-  </si>
-  <si>
-    <t>ShiBaCha, Yingjiang, Dehong, Yunnan, China</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100318000129</t>
-  </si>
-  <si>
-    <t>Philippine English</t>
-  </si>
-  <si>
-    <t>Manila, Philippines</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100317000548</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/PhilippineEnglish.zip</t>
-  </si>
-  <si>
-    <t>Zwara (Zuwārah) Berber</t>
-  </si>
-  <si>
-    <t>Zwara, Libya</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1017/S0025100317000135</t>
-  </si>
-  <si>
-    <t>https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zwara-Berber.zip</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="744">
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pubtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300003868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/American-English.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to find stand-alone online publication. Kenneth Olson cites part of the report on the 1989 Kiel convention as the online publication of this Illustration (JIPA 19(20) 77-80), but the handbook entry is more detailed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American English: Southern Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Michigan, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100303001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Southern-Michigan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor, Kupang City, East Nusa Tenggara, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Amarasi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amharic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addis Ababa, Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Amharic.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safad, North Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Arabic.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assamese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assam, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Assamese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100307003192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Australian-English.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Kimberley, Australia (One Arm Point?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bardi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basaá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Basaa.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Béarnais (Gascon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrénées-Atlantiques, South France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031400005X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bearnais-Gascon.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Belgian Limburg dialect of Hamont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamont, Limberg, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100307002940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hamont.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgian Standard Dutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flanders, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100305002173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belgian-Standard-Dutch.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muya, Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bemba.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengali (Bangladeshi Standard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaka, Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bengali.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100304001756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Brazilian-Portuguese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British English: Received Pronunciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-East England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100304001768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/British%20English%20-%20RP.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Malay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sultanate of Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limbang, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuan, Labuan Federal Territory Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaufort, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miri, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malay.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukharan Tajik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukhara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031300011X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bukharan-Tajik.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100301002122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Burmese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Bulgarian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castilian Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castille, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100303001373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Castilian-Spanish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Catalan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Arrernte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice Springs, Northern Territory, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100305002185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Arrernte.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulu Archipeligo, Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipil, Zamboanga Peninsula, Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semporna, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunak, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Sama.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chickasaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-Central Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100301002110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chickasaw.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicahuaxtla Triqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chicahuaxtla-Triqui.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North-West Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031400022X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cicipu.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (Hong Kong Cantonese)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Cantonese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chistabino (Pyrenean Aragonese)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gistaín, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chistabino-Aragonese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocos Malay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocos Islands, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Islands, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cocos-Malay.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030000520X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Croatian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypriot Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030000654X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cypriot-Greek.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Czech.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech spoken in Bohemia and Moravia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohemia and Moravia, Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Moravian-Czech.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Danish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dari (Afghan Persian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands, North-West Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030000459X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Dutch.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dutch dialect of Weert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weert, province of Limburg, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Weert.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divo, Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030200018X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ega.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sichuan Province, People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ersu.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030999017X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Estonian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Portuguese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fataluku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Fataluku.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Flemish-Brabant dialect of Orsmaal-Gussenhoven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orsmaal-Gussenhoven, Brabant, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Orsmaal-Gussenhoven.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/French.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friulian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friuli-Venezia Giulia region, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100302001056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Friulian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galicia, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Galician.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceh, Sumatra, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Gayo.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/German.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goemai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jos, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Goemai.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goizueta Basque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goizueta, Navarre, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100309990260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Goizueta-Basque.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek Thrace Xoraxane Romane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komotini,Thrace, Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drosero, Xanthi, Thrace, 671 00 Greece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Xoraxane-Romane.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakka Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meixian County, Guandong Province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hakka-Chinese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hausa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kano, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hausa.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dialect of Hasselt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasselt, province of Limburg, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hasselt.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hebrew.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hindi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Hungarian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibibio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akwa Ibom State, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross River State, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100304001550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ibibio.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagos, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Igbo.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ika Igbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbor, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ika-Igbo.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Indonesian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dublin, Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300000189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Irish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istanbul Judeo-Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Judeo-Spanish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isthmus (Juchitán) Zapotec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isthmus of Tehuantepec, Oaxaca, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Isthmus-Zapotec.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rome, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100304001628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Italian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itunyoso Trique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Martín Itunyoso, Oaxaca, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Itunyoso-Trique.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaican Creole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Catherine Parish, Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030600243X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jamaican-Creole.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030000445X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Japanese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jicarilla Apache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100302000191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jicarilla-Apache.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kabiye.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalabari-Ijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayelsa State, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510030300121X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalabari-Ijo.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labuan, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kedayan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kéo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100302000178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fianga, Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100311000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kera.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khowar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khyber Pakhtunkhwa Province, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khowar.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Korean.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumzari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musandam Peninsula, Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100311000314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kumzari.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kunama.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool, England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100307003180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Liverpool-English.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lizu.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luanyjang Dinka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Nile, South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dinka-Luanyjang.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lusoga (Lutenga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busoga, Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lusoga.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourgish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Luxembourgish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyonnais (Francoprovençal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyon, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Francoprovencal.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mah Meri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepang, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100309003946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mah-Meri.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makassar, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031500033X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Makasar.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malayam (Namboodiri Dialect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerala, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malayalam.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mambay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Province, Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mambay.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapudungun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuquén, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Pampa, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Río Negro, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isla Huapi, AraucanIa, Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mapudungun.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavea, Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100309003958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mavea.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mennonite Plautdietsch (Canadian Old Colony)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blumenheim, Saskatchewan, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mennonite-Plautdietsch.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bili, Nord-Ubangi, Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100304001744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mono.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mono Lake Northern Paiute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Basin, western United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031100051X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Paiute.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murcian Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunidad Autónoma de Murcia, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Murcian-Spanish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barentu, Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100302001068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivaĉle (shichaam lhavos variety)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filadelfia, Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nivacle.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bimadibun, New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nen.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100309990181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nepali.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/New-Zealand-English.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwest Sahaptin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northwest-Sahaptin.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuosu Yi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liangshan, Sichuan, People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Yi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuuchahnulth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vancouver Island, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100301002092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nuuchahnulth.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitral District, North-West Frontier Province, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100309990193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Palula.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehran, Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Persian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitjantjatjara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayers Rock, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Pitjantjatjara.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100303001191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Polish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moscow, Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100314000395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Russian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salasaca Quichua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Salasaca-Quichua.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kondoa district, Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sandawe.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100305001933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Seri.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setswana (South African)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taung, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Setswana.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai, People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shanghai-Chinese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shilluk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shilluk.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipibo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucayali, Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100301002109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiwilu (Jebero)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeberos, Loreto, Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shiwilu.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Sindhi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100310000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Slovak.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Slovene.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sound pattern of Standard Italian, as compared with the varieties spoken in Florence, Milan and Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florence, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100305002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Bertinetto-Loporcaro-Italian-SI-FI-MI-RI.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeastern Pashayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuz Kunar, Nangarhar, Afghanistan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Pashayi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spokane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Washington State, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Spokane.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Austrian German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Austrian-German.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Chinese (Beijing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing, People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100303001208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chinese-Beijing.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Georgian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Georgian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Malay (Brunei)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031100017X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Modern Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300006538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Modern-Greek.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Yiddish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warsaw, Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100303001385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumi (Sema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaland, North-East India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sumi-Sema.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Swedish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maluku Province, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Thai.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamambo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malo, Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100305002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tamambo.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100304001549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tamil.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tashlhiyt Berber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tashlhiyt-Berber.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tausung (Suluk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jolo, Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tausug.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telangana, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andhra Pradesh India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Telugu.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031000006X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Temne.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tena Quichua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tena, Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100312000266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tena-Quichua.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gombe State, Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100307002952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tera.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilquiapan Zapotec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilquiapan, Oaxaca, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zapotec.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tukang Besi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300005004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100300004588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/handbookfiles/Turkish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyneside English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle-Upon-Tyne, England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100303001397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tyneside-English.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Saxon (Chemnitz dialect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free State of Saxony, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Saxon.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnamese (Hanoi Vietnamese)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100311000181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Vietnamese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xumi (part 1): Lower Xumi, the variety of the lower and middle reaches of the Shuiluo river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muli, Liangshan, Sichuan, People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lower-Xumi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xumi (part 2): Upper Xumi, the variety of the upper reaches of the Shuiluo river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100313000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Xumi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100308003356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Yine.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100306002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zurich-German.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glen Vowell, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100315000432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Gitksan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malayalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerala,India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku, Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Azerbaijanian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuran Wa Munjan, Badachschan, Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Munji.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukrainian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiev, Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ukrainian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Sorbian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautzen, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Upper-Sorbian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niuean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Niuean.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaiian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hawaiian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Lisu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShiBaCha, Yingjiang, Dehong, Yunnan, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippine English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manila, Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/PhilippineEnglish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwara (Zuwārah) Berber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwara, Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zwara-Berber.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tianjin Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tianjin, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tianjin-Mandarin.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tongan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuku'alofa, Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saterland Frisian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saterland, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saterland-Frisian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja'a Kumiai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juntas de Nejí, Baja California, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/JaaKumiai.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbuygamu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Charlotte Bay, Queensland, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100317000172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Umbuygamu.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarrumbathama (Lamalama)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mbarrumbathama.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filadelfia, Boquerón Department, Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japhug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamnyu village, Gdongbrgyad area, Mbarkhams county, Rngaba prefecture, Sichuan province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100316000426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Japhug.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasak Meno-Mené dialect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lombok, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sasak.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madurese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madura, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Madurese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrikaans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Afrikaans.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmu (Xinzhai variety)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qiandongnan Miao and Dong Autonomous Prefecture, Guizhou Province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seenku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobo-Dioulasso, Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari Sardinian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari, Sardinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Sardinian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawi (Chayahuita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeberos, Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100318000415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Shawi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malacca Portuguese Creole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malacca, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/0.1017/S0025100319000033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malacca-Portuguese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punjabi (Lyallpuri variety)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faisalabad, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Punjabi.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A’ingae (Cofán)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dureno, Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Malagasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antananarivo, Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiangxiang dialect of Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiangxiang, Hunan province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi-org/10.1017/S002510031800035X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Gaelic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh, Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031900015X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Scottish-Gaelic.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper-Chambira Urarina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loreto region, Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Urarina.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khuzestani Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khuzestan province, Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000203</t>
   </si>
 </sst>
 </file>
@@ -2008,9 +2259,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2031,6 +2282,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2E3436"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2075,8 +2333,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2089,6 +2355,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF2E3436"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2097,25 +2423,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B171" activeCellId="0" sqref="B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.025510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="175.255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="102.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="175.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,10 +5255,399 @@
         <v>661</v>
       </c>
     </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H170" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H171" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H177" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H178" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H179" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H180" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H184" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H185" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H186" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="753">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2137,6 +2137,9 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100318000336</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hmu.zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seenku</t>
   </si>
   <si>
@@ -2146,6 +2149,9 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100318000312</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Seenku.zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cagliari Sardinian</t>
   </si>
   <si>
@@ -2203,6 +2209,9 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000082</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/A'ingae.zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central Malagasy</t>
   </si>
   <si>
@@ -2212,6 +2221,9 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000100</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Central-Malagasy.zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xiangxiang dialect of Chinese</t>
   </si>
   <si>
@@ -2221,6 +2233,9 @@
     <t xml:space="preserve">https://doi-org/10.1017/S002510031800035X</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Xiangxiang.zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scottish Gaelic</t>
   </si>
   <si>
@@ -2252,6 +2267,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khuzestani-Arabic.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesian Bajau (East Lombok)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Indonesian-Bajau.zip</t>
   </si>
 </sst>
 </file>
@@ -2333,13 +2360,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2423,24 +2454,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B171" activeCellId="0" sqref="B171"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="102.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="175.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="175.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5470,178 +5501,212 @@
       <c r="H175" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="I175" s="2" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I176" s="1"/>
+      <c r="I176" s="2" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H178" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="I181" s="0" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="I182" s="0" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>735</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="I186" s="0" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="H187" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="0" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -2182,7 +2182,25 @@
     <t xml:space="preserve">Malacca, Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/0.1017/S0025100319000033</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.1017/S0025100319000033</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malacca-Portuguese.zip</t>
@@ -2230,7 +2248,25 @@
     <t xml:space="preserve">Xiangxiang, Hunan province, China</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi-org/10.1017/S002510031800035X</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/10.1017/S002510031800035X</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Xiangxiang.zip</t>
@@ -2288,7 +2324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2309,6 +2345,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2360,7 +2403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2374,6 +2417,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2456,14 +2503,14 @@
   </sheetPr>
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B163" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G183" activeCellId="0" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.94"/>
@@ -2471,7 +2518,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="102.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="175.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="175.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5563,7 +5610,7 @@
       <c r="B179" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G179" s="3" t="s">
         <v>720</v>
       </c>
       <c r="H179" s="0" t="s">
@@ -5628,10 +5675,10 @@
       <c r="A183" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="3" t="s">
         <v>736</v>
       </c>
       <c r="H183" s="0" t="s">
@@ -5710,6 +5757,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G179" r:id="rId1" display="https://doi.org/10"/>
+    <hyperlink ref="G183" r:id="rId2" display="https://doi.org"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="761">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2182,25 +2182,7 @@
     <t xml:space="preserve">Malacca, Malaysia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.1017/S0025100319000033</t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000033</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Malacca-Portuguese.zip</t>
@@ -2248,25 +2230,7 @@
     <t xml:space="preserve">Xiangxiang, Hunan province, China</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/10.1017/S002510031800035X</t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510031800035X</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Xiangxiang.zip</t>
@@ -2315,6 +2279,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Indonesian-Bajau.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejom (Babanki)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejom Ketinguh, Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kejom.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhambyl, Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kazakh.zip</t>
   </si>
 </sst>
 </file>
@@ -2348,14 +2336,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF2E3436"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF2E3436"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2501,10 +2489,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B163" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G183" activeCellId="0" sqref="G183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B189" activeCellId="0" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5610,7 +5598,7 @@
       <c r="B179" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G179" s="0" t="s">
         <v>720</v>
       </c>
       <c r="H179" s="0" t="s">
@@ -5675,10 +5663,10 @@
       <c r="A183" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" s="0" t="s">
         <v>736</v>
       </c>
       <c r="H183" s="0" t="s">
@@ -5756,11 +5744,41 @@
         <v>752</v>
       </c>
     </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="H188" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="H189" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G179" r:id="rId1" display="https://doi.org/10"/>
-    <hyperlink ref="G183" r:id="rId2" display="https://doi.org"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="765">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2303,6 +2303,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kazakh.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jianchuan Bai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jianchuan county, Yunnan province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000379 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/jianchuan-bai.zip</t>
   </si>
 </sst>
 </file>
@@ -2489,15 +2501,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B189" activeCellId="0" sqref="B189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.46"/>
@@ -5778,6 +5790,23 @@
         <v>760</v>
       </c>
     </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="H190" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="769">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2315,6 +2315,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/jianchuan-bai.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalasha (Bumburet variety) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitral district, Khyber Pakhtunkwa Province, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kalasha.zip</t>
   </si>
 </sst>
 </file>
@@ -2324,7 +2336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2345,6 +2357,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2403,7 +2420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2421,6 +2438,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2501,10 +2522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I191" activeCellId="0" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5627,7 +5648,7 @@
       <c r="B180" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="3" t="s">
         <v>724</v>
       </c>
       <c r="H180" s="0" t="s">
@@ -5675,7 +5696,7 @@
       <c r="A183" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>735</v>
       </c>
       <c r="G183" s="0" t="s">
@@ -5769,7 +5790,7 @@
       <c r="H188" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I188" s="4" t="s">
+      <c r="I188" s="5" t="s">
         <v>756</v>
       </c>
     </row>
@@ -5805,6 +5826,23 @@
       </c>
       <c r="I190" s="0" t="s">
         <v>764</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="H191" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="0" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="773">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2327,6 +2327,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kalasha.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarusian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minsk, Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000288 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/belarusian.zip</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2357,11 +2369,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2420,7 +2427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2438,10 +2445,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2522,10 +2525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I191" activeCellId="0" sqref="I191"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H175" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I192" activeCellId="0" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5648,7 +5651,7 @@
       <c r="B180" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="1" t="s">
         <v>724</v>
       </c>
       <c r="H180" s="0" t="s">
@@ -5696,7 +5699,7 @@
       <c r="A183" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>735</v>
       </c>
       <c r="G183" s="0" t="s">
@@ -5790,7 +5793,7 @@
       <c r="H188" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="I188" s="4" t="s">
         <v>756</v>
       </c>
     </row>
@@ -5843,6 +5846,23 @@
       </c>
       <c r="I191" s="0" t="s">
         <v>768</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="0" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="781">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2339,6 +2339,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/belarusian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili Wu Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili, Wujiang district, Suzhou city, Jiangsu province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lili-Wu-Chinese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhushan Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhushan county, Shiyan city, Hubei province,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zhushan-Mandarin.zip</t>
   </si>
 </sst>
 </file>
@@ -2525,10 +2549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H175" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I192" activeCellId="0" sqref="I192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A194" activeCellId="0" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5865,6 +5889,40 @@
         <v>772</v>
       </c>
     </row>
+    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="0" t="s">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="789">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2363,6 +2363,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zhushan-Mandarin.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Andalusian Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almería, Andalusia, Spain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Eastern-Andalusian-Spanish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saraiki Sokar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dera Ghazi Khan, Punjab, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/saraiki.zip</t>
   </si>
 </sst>
 </file>
@@ -2549,10 +2573,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A194" activeCellId="0" sqref="A194"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F172" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F196" activeCellId="0" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5923,6 +5947,40 @@
         <v>780</v>
       </c>
     </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="0" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="793">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2290,7 +2290,7 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000264</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kejom.zip</t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kejom.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Kazakh</t>
@@ -2302,7 +2302,7 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000185</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kazakh.zip</t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kazakh.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Jianchuan Bai</t>
@@ -2314,7 +2314,25 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000379 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/jianchuan-bai.zip</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jianchuan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-bai.ziB</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Kalasha (Bumburet variety) </t>
@@ -2326,7 +2344,25 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000367</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/kalasha.zip</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.zip</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Belarusian</t>
@@ -2338,7 +2374,25 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000288 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/belarusian.zip</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.zip</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Lili Wu Chinese</t>
@@ -2386,7 +2440,37 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100320000328</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/saraiki.zip</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.zip</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Khongso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paletwa Township, Southern Chin State, Myanmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khongso.zip</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2428,6 +2512,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2475,7 +2566,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2493,6 +2584,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2573,10 +2672,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F172" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F196" activeCellId="0" sqref="F196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E182" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I190" activeCellId="0" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5858,7 +5957,7 @@
       <c r="H189" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="I189" s="5" t="s">
         <v>760</v>
       </c>
     </row>
@@ -5875,7 +5974,7 @@
       <c r="H190" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I190" s="0" t="s">
+      <c r="I190" s="6" t="s">
         <v>764</v>
       </c>
     </row>
@@ -5892,7 +5991,7 @@
       <c r="H191" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I191" s="0" t="s">
+      <c r="I191" s="6" t="s">
         <v>768</v>
       </c>
     </row>
@@ -5909,7 +6008,7 @@
       <c r="H192" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I192" s="0" t="s">
+      <c r="I192" s="6" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5977,11 +6076,36 @@
       <c r="H196" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I196" s="0" t="s">
+      <c r="I196" s="6" t="s">
         <v>788</v>
       </c>
     </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I188" r:id="rId1" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kejom"/>
+    <hyperlink ref="I189" r:id="rId2" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kazakh"/>
+    <hyperlink ref="I190" r:id="rId3" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jianchuan"/>
+    <hyperlink ref="I191" r:id="rId4" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha"/>
+    <hyperlink ref="I192" r:id="rId5" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian"/>
+    <hyperlink ref="I196" r:id="rId6" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="809">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2312,6 +2312,99 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1017/S0025100319000379 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jianchuan-bai.ziB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalasha (Bumburet variety) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitral district, Khyber Pakhtunkwa Province, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarusian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minsk, Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000288 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili Wu Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili, Wujiang district, Suzhou city, Jiangsu province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lili-Wu-Chinese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhushan Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhushan county, Shiyan city, Hubei province,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zhushan-Mandarin.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Andalusian Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almería, Andalusia, Spain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Eastern-Andalusian-Spanish.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saraiki Sokar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dera Ghazi Khan, Punjab, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khongso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paletwa Township, Southern Chin State, Myanmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khongso.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapezountian Pontic Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etoloakarnania, Greece </t>
   </si>
   <si>
     <r>
@@ -2322,7 +2415,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jianchuan</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000201</t>
     </r>
     <r>
       <rPr>
@@ -2331,17 +2424,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-bai.ziB</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Kalasha (Bumburet variety) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chitral district, Khyber Pakhtunkwa Province, Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000367</t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Trapezountian-Greek.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dàgáárè (Central)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sombo, Nadowli-Kaleo district, Ghana </t>
   </si>
   <si>
     <r>
@@ -2352,7 +2445,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000225</t>
     </r>
     <r>
       <rPr>
@@ -2361,17 +2454,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.zip</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Belarusian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minsk, Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100319000288 </t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dagaare.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waigeo Island, Raja Ampat Regency, West Papua, Indonesia</t>
   </si>
   <si>
     <r>
@@ -2382,7 +2475,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000237</t>
     </r>
     <r>
       <rPr>
@@ -2391,86 +2484,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.zip</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Lili Wu Chinese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lili, Wujiang district, Suzhou city, Jiangsu province, China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lili-Wu-Chinese.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhushan Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhushan county, Shiyan city, Hubei province,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Zhushan-Mandarin.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Andalusian Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almería, Andalusia, Spain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Eastern-Andalusian-Spanish.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saraiki Sokar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dera Ghazi Khan, Punjab, Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000328</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.zip</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Khongso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paletwa Township, Southern Chin State, Myanmar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Khongso.zip</t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ambel.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic dialect of Gaza City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaza City, Israel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Arabic-Dialect-Of-Gaza-City.zip</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2596,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2593,6 +2623,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2672,10 +2706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E182" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I190" activeCellId="0" sqref="I190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6097,14 +6131,90 @@
         <v>792</v>
       </c>
     </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I188" r:id="rId1" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kejom"/>
-    <hyperlink ref="I189" r:id="rId2" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kazakh"/>
-    <hyperlink ref="I190" r:id="rId3" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jianchuan"/>
-    <hyperlink ref="I191" r:id="rId4" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha"/>
-    <hyperlink ref="I192" r:id="rId5" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian"/>
-    <hyperlink ref="I196" r:id="rId6" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki"/>
+    <hyperlink ref="I188" r:id="rId1" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kejom.zip"/>
+    <hyperlink ref="I189" r:id="rId2" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kazakh.zip"/>
+    <hyperlink ref="I190" r:id="rId3" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Jianchuan-bai.ziB"/>
+    <hyperlink ref="I191" r:id="rId4" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha.zip"/>
+    <hyperlink ref="I192" r:id="rId5" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian.zip"/>
+    <hyperlink ref="I196" r:id="rId6" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki.zip"/>
+    <hyperlink ref="G198" r:id="rId7" display="https://doi.org/10.1017/S0025100320000201"/>
+    <hyperlink ref="I198" r:id="rId8" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Trapezountian-Greek.zip"/>
+    <hyperlink ref="G199" r:id="rId9" display="https://doi.org/10.1017/S0025100320000225"/>
+    <hyperlink ref="I199" r:id="rId10" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dagaare.zip"/>
+    <hyperlink ref="G200" r:id="rId11" display="https://doi.org/10.1017/S0025100320000237"/>
+    <hyperlink ref="I200" r:id="rId12" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ambel.zip"/>
+    <hyperlink ref="G201" r:id="rId13" display="https://doi.org/10.1017/S0025100320000134"/>
+    <hyperlink ref="I201" r:id="rId14" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Arabic-Dialect-Of-Gaza-City.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="813">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2407,25 +2407,7 @@
     <t xml:space="preserve">Etoloakarnania, Greece </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000201 </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Trapezountian-Greek.zip</t>
@@ -2437,25 +2419,7 @@
     <t xml:space="preserve">Sombo, Nadowli-Kaleo district, Ghana </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000225</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000225 </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dagaare.zip</t>
@@ -2467,25 +2431,7 @@
     <t xml:space="preserve">Waigeo Island, Raja Ampat Regency, West Papua, Indonesia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000237</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000237 </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ambel.zip</t>
@@ -2501,6 +2447,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Arabic-Dialect-Of-Gaza-City.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladin, varieties of Val di Fassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val di Fassa, Trentino, Italy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ladin.zip</t>
   </si>
 </sst>
 </file>
@@ -2706,10 +2664,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6199,6 +6157,23 @@
         <v>808</v>
       </c>
     </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I188" r:id="rId1" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kejom.zip"/>
@@ -6207,14 +6182,16 @@
     <hyperlink ref="I191" r:id="rId4" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kalasha.zip"/>
     <hyperlink ref="I192" r:id="rId5" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Belarusian.zip"/>
     <hyperlink ref="I196" r:id="rId6" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Saraiki.zip"/>
-    <hyperlink ref="G198" r:id="rId7" display="https://doi.org/10.1017/S0025100320000201"/>
+    <hyperlink ref="G198" r:id="rId7" display="https://doi.org/10.1017/S0025100320000201 "/>
     <hyperlink ref="I198" r:id="rId8" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Trapezountian-Greek.zip"/>
-    <hyperlink ref="G199" r:id="rId9" display="https://doi.org/10.1017/S0025100320000225"/>
+    <hyperlink ref="G199" r:id="rId9" display="https://doi.org/10.1017/S0025100320000225 "/>
     <hyperlink ref="I199" r:id="rId10" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Dagaare.zip"/>
-    <hyperlink ref="G200" r:id="rId11" display="https://doi.org/10.1017/S0025100320000237"/>
+    <hyperlink ref="G200" r:id="rId11" display="https://doi.org/10.1017/S0025100320000237 "/>
     <hyperlink ref="I200" r:id="rId12" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ambel.zip"/>
     <hyperlink ref="G201" r:id="rId13" display="https://doi.org/10.1017/S0025100320000134"/>
     <hyperlink ref="I201" r:id="rId14" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Arabic-Dialect-Of-Gaza-City.zip"/>
+    <hyperlink ref="G202" r:id="rId15" display="https://doi.org/10.1017/S0025100320000262"/>
+    <hyperlink ref="I202" r:id="rId16" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ladin.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="815">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -1984,6 +1984,9 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0025100318000129</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Lisu.zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Philippine English</t>
   </si>
   <si>
@@ -2027,6 +2030,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1017/S0025100318000397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tongan.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Saterland Frisian</t>
@@ -2666,8 +2672,8 @@
   </sheetPr>
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E140" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I160" activeCellId="0" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5461,139 +5467,144 @@
       <c r="H160" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="I160" s="0" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H162" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I164" s="1"/>
+      <c r="I164" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H165" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H168" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,7 +5612,7 @@
         <v>189</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>191</v>
@@ -5618,7 +5629,7 @@
         <v>410</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>412</v>
@@ -5632,546 +5643,546 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H171" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H173" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H178" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H189" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H190" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I198" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I199" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I200" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="827">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2465,6 +2465,96 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ladin.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cwyzhy Abkhaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Künceğiz, Turkey </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000390</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ttps://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mojeño Trinitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad, Bolivia </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mojeno-Trinitario.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malam, Western Province, Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ende.zip</t>
   </si>
 </sst>
 </file>
@@ -2670,10 +2760,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E140" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I160" activeCellId="0" sqref="I160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E171" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I205" activeCellId="0" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6185,6 +6275,57 @@
         <v>814</v>
       </c>
     </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="0" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I188" r:id="rId1" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Kejom.zip"/>
@@ -6203,6 +6344,9 @@
     <hyperlink ref="I201" r:id="rId14" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Arabic-Dialect-Of-Gaza-City.zip"/>
     <hyperlink ref="G202" r:id="rId15" display="https://doi.org/10.1017/S0025100320000262"/>
     <hyperlink ref="I202" r:id="rId16" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ladin.zip"/>
+    <hyperlink ref="G203" r:id="rId17" display="https://doi.org/10.1017/S0025100320000390"/>
+    <hyperlink ref="I203" r:id="rId18" display="ttps://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip"/>
+    <hyperlink ref="G204" r:id="rId19" display="https://doi.org/10.1017/S0025100320000365"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="842">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2471,6 +2471,42 @@
   </si>
   <si>
     <t xml:space="preserve">Künceğiz, Turkey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mojeño Trinitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad, Bolivia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000365 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mojeno-Trinitario.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malam, Western Province, Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ende.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erakor, Efate, Vanuatu </t>
   </si>
   <si>
     <r>
@@ -2481,7 +2517,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000390</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000177</t>
     </r>
     <r>
       <rPr>
@@ -2494,15 +2530,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">h</t>
-    </r>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nafsan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecapalapa Tepehua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecapalapua, Puebla, Mexico </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2511,14 +2547,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ttps://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000098</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mojeño Trinitario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad, Bolivia </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Tepehuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Tarahumara, Chihuahua State, Mexico </t>
   </si>
   <si>
     <r>
@@ -2529,7 +2574,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100320000365</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S002510032100013X</t>
     </r>
     <r>
       <rPr>
@@ -2538,23 +2583,41 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">  </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mojeno-Trinitario.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malam, Western Province, Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1017/S0025100320000389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ende.zip</t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tepehuan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Welsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llŷn Peninsula, Gwynedd County, Wales </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2606,6 +2669,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2650,7 +2718,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2680,6 +2748,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2760,10 +2836,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E171" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I205" activeCellId="0" sqref="I205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F181" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I209" activeCellId="0" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6288,7 +6364,7 @@
       <c r="H203" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I203" s="2" t="s">
+      <c r="I203" s="7" t="s">
         <v>818</v>
       </c>
     </row>
@@ -6324,6 +6400,75 @@
       </c>
       <c r="I205" s="0" t="s">
         <v>826</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="G206" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="7" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -6344,9 +6489,17 @@
     <hyperlink ref="I201" r:id="rId14" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Arabic-Dialect-Of-Gaza-City.zip"/>
     <hyperlink ref="G202" r:id="rId15" display="https://doi.org/10.1017/S0025100320000262"/>
     <hyperlink ref="I202" r:id="rId16" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Ladin.zip"/>
-    <hyperlink ref="G203" r:id="rId17" display="https://doi.org/10.1017/S0025100320000390"/>
-    <hyperlink ref="I203" r:id="rId18" display="ttps://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip"/>
-    <hyperlink ref="G204" r:id="rId19" display="https://doi.org/10.1017/S0025100320000365"/>
+    <hyperlink ref="G203" r:id="rId17" display="https://doi.org/10.1017/S0025100320000390 "/>
+    <hyperlink ref="I203" r:id="rId18" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip"/>
+    <hyperlink ref="G204" r:id="rId19" display="https://doi.org/10.1017/S0025100320000365 "/>
+    <hyperlink ref="G206" r:id="rId20" display="https://doi.org/10.1017/S0025100321000177"/>
+    <hyperlink ref="I206" r:id="rId21" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nafsan.zip"/>
+    <hyperlink ref="G207" r:id="rId22" display="https://doi.org/10.1017/S0025100321000098"/>
+    <hyperlink ref="I207" r:id="rId23" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mojeno-Trinitario.zip"/>
+    <hyperlink ref="G208" r:id="rId24" display="https://doi.org/10.1017/S002510032100013X"/>
+    <hyperlink ref="I208" r:id="rId25" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tepehuan.zip"/>
+    <hyperlink ref="G209" r:id="rId26" display="https://doi.org/10.1017/S0025100321000165"/>
+    <hyperlink ref="I209" r:id="rId27" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="846">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2507,6 +2507,51 @@
   </si>
   <si>
     <t xml:space="preserve">Erakor, Efate, Vanuatu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000177 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nafsan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecapalapa Tepehua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecapalapua, Puebla, Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000098  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Tepehuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Tarahumara, Chihuahua State, Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510032100013X  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tepehuan.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Welsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llŷn Peninsula, Gwynedd County, Wales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000165  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huangyan Taizhou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huangyan, Taizhou, Zhejiang, China </t>
   </si>
   <si>
     <r>
@@ -2517,7 +2562,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000177</t>
+      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000189</t>
     </r>
     <r>
       <rPr>
@@ -2530,94 +2575,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nafsan.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecapalapa Tepehua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecapalapua, Puebla, Mexico </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000098</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Tepehuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Tarahumara, Chihuahua State, Mexico </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S002510032100013X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tepehuan.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Welsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llŷn Peninsula, Gwynedd County, Wales </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip</t>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Huangyan-Taizhou.zip</t>
   </si>
 </sst>
 </file>
@@ -2627,7 +2585,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2669,11 +2627,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2718,7 +2671,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2749,10 +2702,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2836,10 +2785,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F181" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I209" activeCellId="0" sqref="I209"/>
+      <selection pane="topLeft" activeCell="I210" activeCellId="0" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6403,10 +6352,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>828</v>
       </c>
       <c r="C206" s="2"/>
@@ -6469,6 +6418,23 @@
       </c>
       <c r="I209" s="7" t="s">
         <v>841</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -6492,14 +6458,16 @@
     <hyperlink ref="G203" r:id="rId17" display="https://doi.org/10.1017/S0025100320000390 "/>
     <hyperlink ref="I203" r:id="rId18" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Cwyzhy-Abkhaz.zip"/>
     <hyperlink ref="G204" r:id="rId19" display="https://doi.org/10.1017/S0025100320000365 "/>
-    <hyperlink ref="G206" r:id="rId20" display="https://doi.org/10.1017/S0025100321000177"/>
+    <hyperlink ref="G206" r:id="rId20" display="https://doi.org/10.1017/S0025100321000177 "/>
     <hyperlink ref="I206" r:id="rId21" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nafsan.zip"/>
-    <hyperlink ref="G207" r:id="rId22" display="https://doi.org/10.1017/S0025100321000098"/>
+    <hyperlink ref="G207" r:id="rId22" display="https://doi.org/10.1017/S0025100321000098  "/>
     <hyperlink ref="I207" r:id="rId23" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Mojeno-Trinitario.zip"/>
-    <hyperlink ref="G208" r:id="rId24" display="https://doi.org/10.1017/S002510032100013X"/>
+    <hyperlink ref="G208" r:id="rId24" display="https://doi.org/10.1017/S002510032100013X  "/>
     <hyperlink ref="I208" r:id="rId25" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tepehuan.zip"/>
-    <hyperlink ref="G209" r:id="rId26" display="https://doi.org/10.1017/S0025100321000165"/>
+    <hyperlink ref="G209" r:id="rId26" display="https://doi.org/10.1017/S0025100321000165  "/>
     <hyperlink ref="I209" r:id="rId27" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip"/>
+    <hyperlink ref="G210" r:id="rId28" display="https://doi.org/10.1017/S0025100321000189"/>
+    <hyperlink ref="I210" r:id="rId29" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Huangyan-Taizhou.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="850">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2554,28 +2554,22 @@
     <t xml:space="preserve">Huangyan, Taizhou, Zhejiang, China </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1017/S0025100321000189</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000189 </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Huangyan-Taizhou.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qaqet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raunsepna, Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Qaqet.zip</t>
   </si>
 </sst>
 </file>
@@ -2785,10 +2779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F181" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I210" activeCellId="0" sqref="I210"/>
+      <selection pane="topLeft" activeCell="I211" activeCellId="0" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6435,6 +6429,23 @@
       </c>
       <c r="I210" s="7" t="s">
         <v>845</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" s="0" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -6466,7 +6477,7 @@
     <hyperlink ref="I208" r:id="rId25" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tepehuan.zip"/>
     <hyperlink ref="G209" r:id="rId26" display="https://doi.org/10.1017/S0025100321000165  "/>
     <hyperlink ref="I209" r:id="rId27" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip"/>
-    <hyperlink ref="G210" r:id="rId28" display="https://doi.org/10.1017/S0025100321000189"/>
+    <hyperlink ref="G210" r:id="rId28" display="https://doi.org/10.1017/S0025100321000189 "/>
     <hyperlink ref="I210" r:id="rId29" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Huangyan-Taizhou.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="862">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2570,6 +2570,42 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Qaqet.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pingwu County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Baima.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chukchansi Yokuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Joaquin valley, California, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100321000268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Chukchansi-Yokuts.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markina Basque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markina-Xemein, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100322000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Markina-Basque.zip</t>
   </si>
 </sst>
 </file>
@@ -2779,10 +2815,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F181" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I211" activeCellId="0" sqref="I211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F184" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I214" activeCellId="0" sqref="I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6446,6 +6482,57 @@
       </c>
       <c r="I211" s="0" t="s">
         <v>849</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" s="0" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="866">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2606,6 +2606,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Markina-Basque.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hefei Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hefei, Anhui Province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100322000081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hefei-Mandarin.zip</t>
   </si>
 </sst>
 </file>
@@ -2815,10 +2827,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F184" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I214" activeCellId="0" sqref="I214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A215" activeCellId="0" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6533,6 +6545,23 @@
       </c>
       <c r="I214" s="0" t="s">
         <v>861</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -6566,6 +6595,8 @@
     <hyperlink ref="I209" r:id="rId27" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Welsh.zip"/>
     <hyperlink ref="G210" r:id="rId28" display="https://doi.org/10.1017/S0025100321000189 "/>
     <hyperlink ref="I210" r:id="rId29" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Huangyan-Taizhou.zip"/>
+    <hyperlink ref="G215" r:id="rId30" display="https://doi.org/10.1017/S0025100322000081"/>
+    <hyperlink ref="I215" r:id="rId31" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hefei-Mandarin.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="895">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2618,6 +2618,93 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hefei-Mandarin.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian Veneto (Talian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antônio Prado, Rio Grande do Sul, Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S002510032200010X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Brazilian-Veneto.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Tosk Albanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fier, Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100322000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Northern-Tosk-Albanian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Sebastian del Monte Mixtec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Sebastian del Monte, Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100322000226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/San-Sebastian-Del-Monte-Mixtec.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garifuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Garifuna.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changsha Xiang Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changsha, Hunan Province, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Changsha-Xiang-Chinese.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Lithuanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaunas, Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Standard-Lithuanian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenian (Yerevan Eastern Armenian and Beirut Western Armenian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yerevan, Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beirut, Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Armenian.zip</t>
   </si>
 </sst>
 </file>
@@ -2627,7 +2714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2669,6 +2756,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2713,7 +2805,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2750,14 +2842,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2823,17 +2923,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A215" activeCellId="0" sqref="A215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B222" activeCellId="0" sqref="B222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.45"/>
@@ -2845,7 +2945,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="102.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="175.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,6 +6661,128 @@
       </c>
       <c r="I215" s="7" t="s">
         <v>865</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="H216" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="H217" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="H218" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I218" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="H219" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="H220" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I220" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="H221" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="H222" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="9" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -6600,7 +6821,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="899">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2705,6 +2705,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Armenian.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuba mountains, Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000257 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tima.zip</t>
   </si>
 </sst>
 </file>
@@ -2714,7 +2726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2756,11 +2768,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2805,7 +2812,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2840,14 +2847,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2927,13 +2926,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A197" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B222" activeCellId="0" sqref="B222"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I197" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I223" activeCellId="0" sqref="I223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.45"/>
@@ -6676,7 +6675,7 @@
       <c r="H216" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I216" s="9" t="s">
+      <c r="I216" s="1" t="s">
         <v>869</v>
       </c>
     </row>
@@ -6693,7 +6692,7 @@
       <c r="H217" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I217" s="9" t="s">
+      <c r="I217" s="1" t="s">
         <v>873</v>
       </c>
     </row>
@@ -6710,7 +6709,7 @@
       <c r="H218" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I218" s="9" t="s">
+      <c r="I218" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -6727,7 +6726,7 @@
       <c r="H219" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I219" s="9" t="s">
+      <c r="I219" s="1" t="s">
         <v>881</v>
       </c>
     </row>
@@ -6744,7 +6743,7 @@
       <c r="H220" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I220" s="9" t="s">
+      <c r="I220" s="1" t="s">
         <v>885</v>
       </c>
     </row>
@@ -6761,7 +6760,7 @@
       <c r="H221" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I221" s="9" t="s">
+      <c r="I221" s="1" t="s">
         <v>889</v>
       </c>
     </row>
@@ -6772,7 +6771,7 @@
       <c r="B222" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="1" t="s">
         <v>892</v>
       </c>
       <c r="G222" s="0" t="s">
@@ -6781,8 +6780,25 @@
       <c r="H222" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I222" s="9" t="s">
+      <c r="I222" s="1" t="s">
         <v>894</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="H223" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -6818,6 +6834,8 @@
     <hyperlink ref="I210" r:id="rId29" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Huangyan-Taizhou.zip"/>
     <hyperlink ref="G215" r:id="rId30" display="https://doi.org/10.1017/S0025100322000081"/>
     <hyperlink ref="I215" r:id="rId31" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hefei-Mandarin.zip"/>
+    <hyperlink ref="G223" r:id="rId32" display="https://doi.org/10.1017/S0025100323000257 "/>
+    <hyperlink ref="I223" r:id="rId33" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tima.zip"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/IPA_Illustrations_enc.xlsx
+++ b/IPA_Illustrations_enc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="907">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -2717,6 +2717,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tima.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waat, South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Nuer.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abha Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abha, Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0025100323000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Abha-Arabic.zip</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2750,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2769,6 +2793,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2787,7 +2819,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2811,8 +2843,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2849,14 +2884,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2882,7 +2926,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -2926,13 +2970,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I197" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I223" activeCellId="0" sqref="I223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J193" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J225" activeCellId="0" sqref="J225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.45"/>
@@ -6800,6 +6844,41 @@
       <c r="I223" s="6" t="s">
         <v>898</v>
       </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="H224" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="H225" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="J225" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6836,6 +6915,7 @@
     <hyperlink ref="I215" r:id="rId31" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Hefei-Mandarin.zip"/>
     <hyperlink ref="G223" r:id="rId32" display="https://doi.org/10.1017/S0025100323000257 "/>
     <hyperlink ref="I223" r:id="rId33" display="https://www.internationalphoneticassociation.org/sites/default/files/JIPArecordings/Tima.zip"/>
+    <hyperlink ref="G225" r:id="rId34" display="https://doi.org/10.1017/S0025100323000269"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
